--- a/ippackage.xlsx
+++ b/ippackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C9A2CA-4717-4A83-AFD6-049C9CC101CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594047E-6259-434D-8470-A6CECBF5088C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_salesforcepackage" sheetId="2" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ippackage.xlsx
+++ b/ippackage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594047E-6259-434D-8470-A6CECBF5088C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA56E6D-1B10-406C-85DC-930133003413}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_salesforcepackage" sheetId="2" r:id="rId1"/>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ippackage.xlsx
+++ b/ippackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9A6866-F542-4014-93AE-93C9C5607C08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCD7A0-3F08-4DFC-8263-0F34A07A9496}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
